--- a/Radicioni/es3_semEval/Def_SemEval_data.xlsx
+++ b/Radicioni/es3_semEval/Def_SemEval_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amministratore\Desktop\Scuola\Magistrale\TLN\02 Radicioni\nlp-UniTO-2021-22\Radicioni\es3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolobonicco/Projects/nlp-UniTO-2021-22/Radicioni/es3_semEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A02D69B-A032-40BB-8A02-8D09B9CDA4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E686D76C-0FF9-9A4D-9F71-E45D63DEBDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval_data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="298">
   <si>
     <t>Term1</t>
   </si>
@@ -121,9 +121,6 @@
     <t>bn:00069738n</t>
   </si>
   <si>
-    <t>Tra cos_sim e media</t>
-  </si>
-  <si>
     <t>livello</t>
   </si>
   <si>
@@ -896,13 +893,46 @@
   </si>
   <si>
     <t>bn:03225456n</t>
+  </si>
+  <si>
+    <t>0.6782</t>
+  </si>
+  <si>
+    <t>Inter-rater agreement calcolati nel file python</t>
+  </si>
+  <si>
+    <t>0.1370</t>
+  </si>
+  <si>
+    <t>0.4486</t>
+  </si>
+  <si>
+    <t>Valutazione: Confronto tra Cosine Similarity e Mean Annotatori calcolato nel file python</t>
+  </si>
+  <si>
+    <t>Kappa di Cohen</t>
+  </si>
+  <si>
+    <t>Synset 1</t>
+  </si>
+  <si>
+    <t>Synset 2</t>
+  </si>
+  <si>
+    <t>0.6756</t>
+  </si>
+  <si>
+    <t>0.63504</t>
+  </si>
+  <si>
+    <t>Inter-rater agreement tra sensi, calcolata sui BabelNet Synset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,12 +1088,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Var(--Ff-Mono)"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Menlo"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1255,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1399,17 +1423,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1491,17 +1504,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1528,6 +1530,122 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1575,47 +1693,38 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1627,81 +1736,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2015,2578 +2160,2560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L45" workbookViewId="0">
-      <selection activeCell="R103" sqref="R55:R103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:31" ht="16" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="13" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+    </row>
+    <row r="2" spans="1:31" ht="16" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>1.8</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="23">
         <f>AVERAGE(C2,D2)</f>
         <v>1.9</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="26">
         <f>E2/4</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="H2" s="5">
-        <f>PEARSON(C2:C51,D2:D51)</f>
-        <v>0.66469583027603185</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.1991</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="16">
         <v>0.72799999999999998</v>
       </c>
-      <c r="U2">
-        <f>PEARSON(E2:E51,S2:S51)</f>
-        <v>0.43961520595820142</v>
-      </c>
-      <c r="V2">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:31" ht="16" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="16">
         <v>2.6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="23">
         <f t="shared" ref="E3:E51" si="0">AVERAGE(C3,D3)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F51" si="1">E3/4</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="16">
         <v>0.86629999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="U3" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="V3" s="29"/>
+      <c r="X3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y3" s="29"/>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="H4" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="16">
         <v>0.31769999999999998</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="30"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>1.8</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>1.8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="K5" s="16" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="13"/>
+      <c r="N5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="S5" s="16">
+        <v>0.9637</v>
+      </c>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+    </row>
+    <row r="6" spans="1:31" ht="16" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="21">
-        <v>0.9637</v>
-      </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="C6" s="16">
         <v>0.8</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>1.2</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="13"/>
+      <c r="N6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="16">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+    </row>
+    <row r="7" spans="1:31" ht="16" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="21">
-        <v>0.53939999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>1.5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>2.8</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>0.53749999999999998</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="16">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="33"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+    </row>
+    <row r="8" spans="1:31" ht="16" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="21">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="H8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="21">
-        <v>0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="C9" s="16">
         <v>0</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="H9" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.1991</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y9" s="36"/>
+    </row>
+    <row r="10" spans="1:31" ht="16" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0.45479999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>0.8</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y10" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="C11" s="16">
         <v>2.5</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19" t="s">
+      <c r="O11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="21">
+      <c r="S11" s="16">
         <v>0.7369</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="C12" s="16">
         <v>2.8</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="21">
+      <c r="R12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="16">
         <v>0.76239999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="21" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="21">
+      <c r="S13" s="16">
         <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <v>2.4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <v>1.5</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>0.48749999999999999</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="13"/>
+      <c r="N14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" s="21">
+      <c r="S14" s="16">
         <v>0.72070000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="C15" s="16">
         <v>2.8</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="13">
         <v>2.8</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="20" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="S15" s="21">
+      <c r="R15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="16">
         <v>0.86629999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="C16" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="13">
         <v>1.8</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="21" t="s">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="21">
+      <c r="S16" s="16">
         <v>0.90780000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="C17" s="16">
         <v>4</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="13">
         <v>3.5</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19" t="s">
+      <c r="O17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="21" t="s">
+      <c r="R17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="21">
+      <c r="S17" s="16">
         <v>0.91249999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <v>1.4</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>0.8</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="21" t="s">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="R18" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="S18" s="21">
+      <c r="S18" s="16">
         <v>0.66290000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="21">
+      <c r="C19" s="16">
         <v>1.6</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="16">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="M19" s="13"/>
+      <c r="N19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="20" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="S19" s="16">
         <v>0.70540000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="13">
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="M20" s="13"/>
+      <c r="N20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="21" t="s">
+      <c r="R20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="S20" s="21">
+      <c r="S20" s="16">
         <v>0.46879999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="C21" s="16">
         <v>0.2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>0.5</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <f t="shared" si="1"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="21" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="R21" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="S21" s="21">
+      <c r="S21" s="16">
         <v>0.5837</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="21">
+      <c r="C22" s="16">
         <v>0.5</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <v>1</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="23">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="13"/>
+      <c r="N22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="S22" s="21">
+      <c r="S22" s="16">
         <v>0.62390000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
         <v>127</v>
       </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="C23" s="16">
         <v>3</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <v>3</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="16">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="M23" s="13"/>
+      <c r="N23" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19" t="s">
+      <c r="O23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S23" s="21">
+      <c r="R23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" s="16">
         <v>0.46729999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="C24" s="16">
         <v>0</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="13">
         <v>0.8</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="23">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="13"/>
+      <c r="N24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="19" t="s">
+      <c r="R24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S24" s="21">
+      <c r="S24" s="16">
         <v>0.59960000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
         <v>139</v>
       </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="C25" s="16">
         <v>1.8</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="23">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="16">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="13"/>
+      <c r="N25" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19" t="s">
+      <c r="O25" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="21" t="s">
+      <c r="R25" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25" s="21">
+      <c r="S25" s="16">
         <v>0.7117</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
         <v>147</v>
       </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="C26" s="16">
         <v>2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="13">
         <v>3.2</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="23">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="13"/>
+      <c r="N26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="O26" s="20" t="s">
+      <c r="R26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="S26" s="21">
+      <c r="S26" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
         <v>152</v>
       </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="C27" s="16">
         <v>2.6</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="13">
         <v>3</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="23">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="M27" s="13"/>
+      <c r="N27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="21" t="s">
+      <c r="R27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="R27" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="S27" s="21">
+      <c r="S27" s="16">
         <v>0.93830000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
       </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="C28" s="16">
         <v>3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="13">
         <v>4</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="23">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="M28" s="13"/>
+      <c r="N28" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19" t="s">
+      <c r="O28" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="21" t="s">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="R28" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="S28" s="21">
+      <c r="S28" s="16">
         <v>0.81820000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="13">
         <v>2.5</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="23">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19" t="s">
+      <c r="M29" s="13"/>
+      <c r="N29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="R29" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="O29" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="S29" s="21">
+      <c r="S29" s="16">
         <v>0.86529999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="M30" s="13"/>
+      <c r="N30" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19" t="s">
+      <c r="O30" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="R30" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="S30" s="21">
+      <c r="S30" s="16">
         <v>0.68789999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
         <v>175</v>
       </c>
-      <c r="B31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="13">
         <v>2</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="16">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="M31" s="13"/>
+      <c r="N31" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="O31" s="20" t="s">
+      <c r="O31" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="S31" s="21">
+      <c r="R31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="S31" s="16">
         <v>0.86839999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="21">
+        <v>151</v>
+      </c>
+      <c r="C32" s="16">
         <v>0</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="13">
         <v>0</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L32" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19" t="s">
+      <c r="O32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S32" s="21">
+      <c r="R32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S32" s="16">
         <v>0.3538</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
         <v>184</v>
       </c>
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="C33" s="16">
         <v>1.4</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="13">
         <v>1.2</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="23">
         <f t="shared" si="0"/>
         <v>1.2999999999999998</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <f t="shared" si="1"/>
         <v>0.32499999999999996</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L33" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19" t="s">
+      <c r="M33" s="13"/>
+      <c r="N33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O33" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="O33" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="21" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="R33" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="S33" s="21">
+      <c r="S33" s="16">
         <v>0.52890000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="C34" s="16">
         <v>4</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="13">
         <v>4</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="21">
+      <c r="K34" s="16"/>
+      <c r="L34" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="B35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="C35" s="16">
         <v>3.6</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="23">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="13"/>
+      <c r="N35" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="21" t="s">
+      <c r="O35" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="R35" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="S35" s="21">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="S35" s="16">
         <v>0.92449999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
         <v>196</v>
       </c>
-      <c r="B36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="C36" s="16">
         <v>0.4</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="13">
         <v>0</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="23">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="16">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="M36" s="13"/>
+      <c r="N36" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R36" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S36" s="21">
+      <c r="S36" s="16">
         <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
         <v>201</v>
       </c>
-      <c r="B37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="C37" s="16">
         <v>3</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="13">
         <v>2</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="16">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="M37" s="13"/>
+      <c r="N37" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="21" t="s">
+      <c r="R37" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="S37" s="21">
+      <c r="S37" s="16">
         <v>0.5948</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
         <v>207</v>
       </c>
-      <c r="B38" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="21">
+      <c r="C38" s="16">
         <v>2.5</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="13">
         <v>2</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="23">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="K38" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="L38" s="17" t="s">
+      <c r="K38" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19" t="s">
+      <c r="O38" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="P38" s="13"/>
+      <c r="Q38" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R38" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="R38" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="S38" s="21">
+      <c r="S38" s="16">
         <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="C39" s="16">
         <v>2</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="13">
         <v>3</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="M39" s="13"/>
+      <c r="N39" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="21" t="s">
+      <c r="R39" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="R39" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="S39" s="21">
+      <c r="S39" s="16">
         <v>0.76829999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" t="s">
         <v>219</v>
       </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="C40" s="16">
         <v>2.8</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="13">
         <v>2</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="23">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="M40" s="13"/>
+      <c r="N40" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19" t="s">
+      <c r="O40" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="O40" s="20" t="s">
+      <c r="P40" s="13"/>
+      <c r="Q40" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="R40" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="S40" s="21">
+      <c r="S40" s="16">
         <v>0.93830000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" t="s">
         <v>226</v>
       </c>
-      <c r="B41" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="C41" s="16">
         <v>0.4</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="13">
         <v>3.8</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="23">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="M41" s="13"/>
+      <c r="N41" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19" t="s">
+      <c r="O41" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="O41" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="21" t="s">
+      <c r="R41" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="R41" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="S41" s="21">
+      <c r="S41" s="16">
         <v>0.76390000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
         <v>233</v>
       </c>
-      <c r="B42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="21">
+      <c r="C42" s="16">
         <v>0</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="13">
         <v>0</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="M42" s="13"/>
+      <c r="N42" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="O42" s="20" t="s">
+      <c r="P42" s="13"/>
+      <c r="Q42" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="21" t="s">
+      <c r="R42" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="R42" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="S42" s="21">
+      <c r="S42" s="16">
         <v>0.69930000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" t="s">
         <v>240</v>
       </c>
-      <c r="B43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="C43" s="16">
         <v>3</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="13">
         <v>2</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="K43" s="21" t="s">
+      <c r="H43" s="8"/>
+      <c r="K43" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L43" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19" t="s">
+      <c r="M43" s="13"/>
+      <c r="N43" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="O43" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="O43" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="21" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="R43" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="R43" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="S43" s="21">
+      <c r="S43" s="16">
         <v>0.94740000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
         <v>244</v>
       </c>
-      <c r="B44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="21">
+      <c r="C44" s="16">
         <v>2.8</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="13">
         <v>1.5</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="23">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <f t="shared" si="1"/>
         <v>0.53749999999999998</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="M44" s="13"/>
+      <c r="N44" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="O44" s="20" t="s">
+      <c r="P44" s="13"/>
+      <c r="Q44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="S44" s="21">
+      <c r="S44" s="16">
         <v>0.84750000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
         <v>250</v>
       </c>
-      <c r="B45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="C45" s="16">
         <v>1.8</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="13">
         <v>1.2</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="23">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="M45" s="13"/>
+      <c r="N45" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19" t="s">
+      <c r="O45" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="O45" s="20" t="s">
+      <c r="P45" s="13"/>
+      <c r="Q45" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="21" t="s">
+      <c r="R45" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R45" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="S45" s="21">
+      <c r="S45" s="16">
         <v>0.29830000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" t="s">
         <v>258</v>
       </c>
-      <c r="B46" t="s">
-        <v>259</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="C46" s="16">
         <v>3.4</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="13">
         <v>2</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="23">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <f t="shared" si="1"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="K46" s="21" t="s">
+      <c r="K46" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="L46" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="19" t="s">
+      <c r="M46" s="13"/>
+      <c r="N46" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O46" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="O46" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="21" t="s">
+      <c r="P46" s="13"/>
+      <c r="Q46" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="R46" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="R46" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="S46" s="21">
+      <c r="S46" s="16">
         <v>0.86439999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="s">
         <v>262</v>
       </c>
-      <c r="B47" t="s">
-        <v>263</v>
-      </c>
-      <c r="C47" s="21">
+      <c r="C47" s="16">
         <v>3.6</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="13">
         <v>3</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="23">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <f t="shared" si="1"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L47" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="19" t="s">
+      <c r="M47" s="13"/>
+      <c r="N47" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="O47" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="21" t="s">
+      <c r="P47" s="13"/>
+      <c r="Q47" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="R47" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="R47" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="S47" s="21">
+      <c r="S47" s="16">
         <v>0.97550000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s">
         <v>266</v>
       </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="C48" s="16">
         <v>1.8</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="13">
         <v>1.5</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="23">
         <f t="shared" si="0"/>
         <v>1.65</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="16">
         <f t="shared" si="1"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="M48" s="13"/>
+      <c r="N48" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="O48" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="19" t="s">
+      <c r="P48" s="13"/>
+      <c r="Q48" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="R48" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="O48" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="R48" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="S48" s="21">
+      <c r="S48" s="16">
         <v>0.62490000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" t="s">
         <v>271</v>
       </c>
-      <c r="B49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="21">
+      <c r="C49" s="16">
         <v>0</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="13">
         <v>0</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K49" s="21" t="s">
+      <c r="K49" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="L49" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="M49" s="13"/>
+      <c r="N49" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="O49" s="20" t="s">
+      <c r="P49" s="13"/>
+      <c r="Q49" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="R49" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="S49" s="21">
+      <c r="R49" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="S49" s="16">
         <v>0.36990000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
         <v>277</v>
       </c>
-      <c r="B50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="21">
+      <c r="C50" s="16">
         <v>0</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="13">
         <v>0</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="M50" s="13"/>
+      <c r="N50" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="R50" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="O50" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="S50" s="21">
+      <c r="S50" s="16">
         <v>0.54330000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="22">
+        <v>122</v>
+      </c>
+      <c r="C51" s="17">
         <v>2.4</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="21">
         <v>1.2</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="24">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="17">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M51" s="13"/>
+      <c r="N51" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="L51" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="24" t="s">
+      <c r="O51" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="O51" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="22" t="s">
+      <c r="R51" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="R51" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="S51" s="22">
+      <c r="S51" s="17">
         <v>0.42249999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="F53">
-        <f>F2</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" ref="G53:R53" si="2">K2</f>
-        <v>bn:03353031n</v>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="2"/>
-        <v>bn:00010543n</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="2"/>
-        <v>bn:03353031n</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="2"/>
-        <v>bn:00010543n</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="2"/>
-        <v>bn:03353031n</v>
-      </c>
-      <c r="R53" t="str">
-        <f t="shared" si="2"/>
-        <v>bn:00010543n</v>
-      </c>
-    </row>
     <row r="54" spans="1:19">
-      <c r="F54" t="str">
-        <f>F53&amp;","&amp;F3</f>
-        <v>0,475,0,575</v>
-      </c>
-      <c r="K54" s="32" t="str">
-        <f>K53&amp;","&amp;K3</f>
-        <v>bn:03353031n,bn:00052703n</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" ref="G54:L69" si="3">L53&amp;","&amp;L3</f>
-        <v>bn:00010543n,bn:00079748n</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" ref="N54:N103" si="4">N53&amp;","&amp;N3</f>
-        <v>bn:03353031n,bn:00052703n</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" ref="O54:O103" si="5">O53&amp;","&amp;O3</f>
-        <v>bn:00010543n,bn:00079748n</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" ref="Q54:Q103" si="6">Q53&amp;","&amp;Q3</f>
-        <v>bn:03353031n,bn:00052703n</v>
-      </c>
-      <c r="R54" t="str">
-        <f t="shared" ref="R54:R103" si="7">R53&amp;","&amp;R3</f>
-        <v>bn:00010543n,bn:00080211n</v>
-      </c>
+      <c r="K54" s="27"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="G56" s="14"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="G57" s="14"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="G58" s="14"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="G59" s="14"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="G60" s="14"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="G61" s="14"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="G62" s="14"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="G63" s="14"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="G64" s="14"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="14"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="14"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="14"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="14"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="14"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="14"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="14"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="14"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="14"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="14"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="14"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="14"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="14"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="14"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="14"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="14"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="14"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="14"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="14"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="14"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="14"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="14"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="14"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="14"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="14"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="14"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="14"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="14"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="14"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="14"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="14"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="14"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="14"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="14"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="14"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="14"/>
+      <c r="G100" s="10"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="14"/>
+      <c r="G101" s="10"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="14"/>
+      <c r="G102" s="10"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="14"/>
+      <c r="G103" s="10"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="14"/>
+      <c r="G104" s="10"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="14"/>
+      <c r="G105" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U4:X4"/>
+  <mergeCells count="4">
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="U3:V7"/>
+    <mergeCell ref="X3:Y7"/>
+    <mergeCell ref="H4:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Radicioni/es3_semEval/Def_SemEval_data.xlsx
+++ b/Radicioni/es3_semEval/Def_SemEval_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paolobonicco/Projects/nlp-UniTO-2021-22/Radicioni/es3_semEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E686D76C-0FF9-9A4D-9F71-E45D63DEBDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286D8E0-BAA6-F641-AE5D-90DE6C5DD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="298">
   <si>
     <t>Term1</t>
   </si>
@@ -895,18 +895,9 @@
     <t>bn:03225456n</t>
   </si>
   <si>
-    <t>0.6782</t>
-  </si>
-  <si>
     <t>Inter-rater agreement calcolati nel file python</t>
   </si>
   <si>
-    <t>0.1370</t>
-  </si>
-  <si>
-    <t>0.4486</t>
-  </si>
-  <si>
     <t>Valutazione: Confronto tra Cosine Similarity e Mean Annotatori calcolato nel file python</t>
   </si>
   <si>
@@ -926,6 +917,15 @@
   </si>
   <si>
     <t>Inter-rater agreement tra sensi, calcolata sui BabelNet Synset</t>
+  </si>
+  <si>
+    <t>0.6647</t>
+  </si>
+  <si>
+    <t>0.4396</t>
+  </si>
+  <si>
+    <t>0.618</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1764,6 +1764,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1782,26 +1803,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2160,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2315,14 +2318,14 @@
       <c r="S3" s="16">
         <v>0.86629999999999996</v>
       </c>
-      <c r="U3" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="V3" s="29"/>
-      <c r="X3" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y3" s="29"/>
+      <c r="U3" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="X3" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2345,10 +2348,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="H4" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="38"/>
       <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
@@ -2372,11 +2375,11 @@
       <c r="S4" s="16">
         <v>0.31769999999999998</v>
       </c>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
@@ -2405,8 +2408,8 @@
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
@@ -2430,11 +2433,11 @@
       <c r="S5" s="16">
         <v>0.9637</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="31"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="40"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="31"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
@@ -2463,8 +2466,8 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="K6" s="11" t="s">
         <v>37</v>
       </c>
@@ -2488,10 +2491,10 @@
       <c r="S6" s="16">
         <v>0.53939999999999999</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="31"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
     </row>
     <row r="7" spans="1:31" ht="16" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -2537,10 +2540,10 @@
       <c r="S7" s="16">
         <v>0.71499999999999997</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="33"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="33"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="42"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="1:31" ht="16" thickBot="1">
       <c r="A8" s="1" t="s">
@@ -2563,10 +2566,10 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="33" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -2615,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.1991</v>
+        <v>295</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>53</v>
@@ -2643,14 +2646,14 @@
       <c r="S9" s="16">
         <v>0.45479999999999998</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="X9" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y9" s="36"/>
     </row>
@@ -2698,17 +2701,17 @@
       <c r="S10" s="16">
         <v>0.79430000000000001</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="X10" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="V10" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="X10" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y10" s="37" t="s">
-        <v>294</v>
+      <c r="Y10" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="16" thickBot="1">
@@ -2755,11 +2758,11 @@
       <c r="S11" s="16">
         <v>0.7369</v>
       </c>
-      <c r="X11" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y11" s="38" t="s">
-        <v>296</v>
+      <c r="X11" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:31">
